--- a/data/trans_dic/P34_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P34_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente</t>
+          <t>Población que fuma diariamente (tasa de respuesta: 99,85%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26,36%</t>
+          <t>25,68%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,56%</t>
+          <t>23,01%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>24,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>26,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>18,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>17,23%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>22,34%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>20,33%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>18,35%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>11,89%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>19,61%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>21,9%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,77; 35,49</t>
+          <t>18,32; 34,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,03; 32,69</t>
+          <t>16,42; 32,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,56; 26,95</t>
+          <t>11,67; 25,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,58; 33,31</t>
+          <t>7,68; 22,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,07; 26,38</t>
+          <t>17,23; 33,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,74; 25,91</t>
+          <t>17,18; 36,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,91; 29,48</t>
+          <t>13,14; 26,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,15; 21,25</t>
+          <t>12,01; 24,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,49; 28,3</t>
+          <t>13,13; 27,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,46; 27,69</t>
+          <t>5,66; 17,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,27; 24,75</t>
+          <t>8,46; 21,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,8; 25,71</t>
+          <t>10,96; 25,25</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>17,35; 27,36</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>15,54; 26,37</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>13,92; 23,67</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>7,98; 18,02</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>15,1; 26,02</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>16,74; 29,36</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>42,31%</t>
+          <t>41,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>34,05%</t>
+          <t>32,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>33,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
+          <t>29,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>30,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>17,24%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>18,4%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>17,92%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>21,58%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>31,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>26,16%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>26,65%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>24,95%</t>
+          <t>25,52%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>30,81%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>25,21%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>26,23%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>24,27%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>24,94%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>28,13%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,52; 51,43</t>
+          <t>31,96; 51,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,65; 41,67</t>
+          <t>25,27; 39,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,89; 42,73</t>
+          <t>25,77; 42,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,12; 37,14</t>
+          <t>19,22; 40,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,67; 24,97</t>
+          <t>19,93; 37,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,16; 22,85</t>
+          <t>21,62; 40,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,5; 24,12</t>
+          <t>13,31; 24,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,58; 28,46</t>
+          <t>12,6; 22,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,7; 37,35</t>
+          <t>13,65; 23,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,74; 30,66</t>
+          <t>12,63; 24,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,97; 32,7</t>
+          <t>16,0; 29,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,85; 30,72</t>
+          <t>19,18; 32,11</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>25,46; 37,51</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>20,95; 29,77</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>21,93; 31,22</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>18,65; 31,73</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>19,5; 30,36</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>22,59; 34,42</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>33,07%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>27,74%</t>
+          <t>27,07%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,9%</t>
+          <t>27,16%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>26,67%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>36,48%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>21,32%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,6%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>24,76%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>23,11%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>20,1%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>24,5%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>26,86%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>26,14%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>25,01%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>28,01%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>27,13%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>25,88%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>25,08%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>23,27%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
           <t>30,82%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>28,86%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,08; 42,05</t>
+          <t>26,35; 41,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,1; 34,03</t>
+          <t>21,62; 32,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,03; 33,76</t>
+          <t>20,99; 33,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,0; 44,05</t>
+          <t>19,8; 36,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,29; 26,55</t>
+          <t>30,05; 44,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,31; 29,52</t>
+          <t>23,32; 36,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,02; 27,61</t>
+          <t>16,52; 26,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,53; 30,49</t>
+          <t>20,62; 29,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,37; 32,99</t>
+          <t>18,92; 27,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,68; 30,23</t>
+          <t>15,83; 25,2</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>21,42; 28,85</t>
+          <t>19,12; 30,01</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,5; 35,58</t>
+          <t>22,76; 35,16</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>22,74; 32,32</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>22,39; 29,65</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>21,43; 29,26</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>18,75; 28,74</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>26,18; 35,36</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>24,38; 34,02</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>25,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>27,2%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>21,93%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>21,88%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>36,02%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>23,03%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>31,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>23,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>38,85%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>24,19%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>20,4%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
+          <t>38,84%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>30,53%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>24,82%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>23,34%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>22,07%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>21,14%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
         <is>
           <t>37,36%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>30,83%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,94; 31,86</t>
+          <t>20,29; 32,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,11; 32,97</t>
+          <t>22,24; 32,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,67; 27,37</t>
+          <t>17,45; 26,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,14; 43,49</t>
+          <t>16,67; 29,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,44; 27,76</t>
+          <t>29,06; 42,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,63; 23,97</t>
+          <t>25,22; 38,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,47; 26,2</t>
+          <t>19,25; 28,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,43; 44,89</t>
+          <t>15,63; 23,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,71; 28,42</t>
+          <t>18,15; 27,03</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,23; 26,86</t>
+          <t>16,19; 25,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,04; 25,39</t>
+          <t>32,58; 45,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,28; 42,27</t>
+          <t>25,05; 36,76</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>21,36; 29,19</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>20,26; 27,08</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>19,16; 25,58</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>18,09; 26,32</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>33,1; 42,55</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>26,89; 35,55</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1505,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>27,22%</t>
+          <t>26,67%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>26,34%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1231,47 +1520,77 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>20,62%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>27,72%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>23,6%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>18,67%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18,91%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19,16%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>30,64%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>25,38%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>22,48%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>21,56%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>24,48%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>25,32%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>22,51%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>21,68%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>19,87%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>29,24%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>27,21%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,22; 34,45</t>
+          <t>20,55; 32,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,31; 32,19</t>
+          <t>21,39; 32,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,32; 29,82</t>
+          <t>19,45; 30,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21,38; 34,9</t>
+          <t>15,92; 26,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,33; 29,93</t>
+          <t>21,49; 35,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,41; 23,4</t>
+          <t>23,8; 37,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,29; 24,15</t>
+          <t>18,78; 30,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>24,44; 36,63</t>
+          <t>14,22; 23,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,92; 29,99</t>
+          <t>14,29; 24,03</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,04; 26,26</t>
+          <t>13,45; 25,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,96; 25,48</t>
+          <t>24,54; 36,9</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>24,56; 33,72</t>
+          <t>19,07; 31,3</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>21,42; 29,48</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>19,07; 26,08</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>18,16; 25,49</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>15,93; 24,3</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>25,09; 34,08</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>23,02; 32,04</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>13,44%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>16,26%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>4,92%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>21,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>7,38%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>7,94%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>8,07%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>7,32%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>8,42%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>10,74%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>13,28%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,0; 16,17</t>
+          <t>7,46; 17,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,58; 17,22</t>
+          <t>6,64; 17,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,24; 15,66</t>
+          <t>6,28; 15,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,67; 23,53</t>
+          <t>8,25; 20,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,51; 9,67</t>
+          <t>10,15; 23,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,68; 9,56</t>
+          <t>14,78; 28,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,81; 8,52</t>
+          <t>2,39; 10,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,4; 11,72</t>
+          <t>3,51; 9,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,03; 10,81</t>
+          <t>3,19; 8,91</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,88; 11,19</t>
+          <t>1,79; 8,89</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,95; 10,04</t>
+          <t>3,43; 11,71</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,75; 15,1</t>
+          <t>4,17; 11,72</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>5,68; 10,99</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>5,82; 11,1</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>5,02; 10,14</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>5,67; 11,92</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>7,8; 15,12</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>10,05; 17,09</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>27,69%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>22,97%</t>
+          <t>22,73%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28,97%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>28,36%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>17,3%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>17,71%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>15,23%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>22,44%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>22,78%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>21,24%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>20,27%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>21,83%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>22,92%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>20,92%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>20,16%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>18,3%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>25,69%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>25,07%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>24,82; 30,95</t>
+          <t>24,79; 30,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,86; 27,93</t>
+          <t>22,42; 27,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>20,32; 25,71</t>
+          <t>20,29; 25,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>26,03; 32,47</t>
+          <t>18,39; 25,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,0; 20,12</t>
+          <t>25,82; 31,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,62; 19,32</t>
+          <t>25,31; 31,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,95; 19,64</t>
+          <t>16,25; 20,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,06; 24,93</t>
+          <t>15,45; 19,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,15; 24,89</t>
+          <t>15,55; 19,71</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,75; 22,87</t>
+          <t>13,3; 17,54</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18,75; 21,98</t>
+          <t>20,06; 25,24</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>23,79; 27,77</t>
+          <t>19,42; 24,64</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>21,12; 24,88</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>19,41; 22,68</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>18,47; 21,99</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>16,68; 20,69</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>23,73; 27,71</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>23,02; 27,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que fuma diariamente (tasa de respuesta: 99,85%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>128915</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>120621</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>90440</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>63585</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10459</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>11132</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>88015</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>90676</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>97505</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>47517</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5127</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6644</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>216930</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>211297</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>187945</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>111102</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>15586</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>17776</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>91980; 170874</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>86068; 168042</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>59540; 131320</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>35114; 103658</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7250; 14269</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7323; 15369</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>61604; 123569</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>61832; 125310</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>67472; 139921</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>27027; 85228</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3165; 8145</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4225; 9735</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>168460; 265605</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>161444; 273993</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>142558; 242381</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>74614; 168457</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>12001; 20682</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>13593; 23831</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>237804</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>183081</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>196428</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>172581</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13920</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14340</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>97883</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>87577</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>95214</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>90042</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>10185</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11673</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>335687</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>270658</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>291642</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>262623</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>24105</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>26014</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>183241; 292506</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>142906; 222238</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>153181; 250660</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>111465; 236038</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9858; 18596</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10100; 18977</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>68704; 127163</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>63984; 113435</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>70643; 124104</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>63457; 122979</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>7553; 13935</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>8773; 14691</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>277428; 408756</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>224878; 319590</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>243789; 347091</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>201852; 343400</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>18846; 29342</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>20887; 31830</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>226091</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>184277</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>183813</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>178870</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>21965</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>17899</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>152716</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>176974</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>164476</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>144200</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13209</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>15158</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>378807</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>361251</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>348289</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>323071</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>35174</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>33057</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>180109; 286837</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>147148; 223603</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>142051; 228574</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>132812; 242743</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18095; 26580</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>14094; 22251</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>117690; 186971</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>147440; 211269</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>134686; 196122</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>113584; 180793</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10310; 16182</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>12318; 19026</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>317436; 451183</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>312488; 413733</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>297627; 406311</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>260295; 398959</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>29875; 40358</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>27929; 38965</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>166578</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>175678</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>139620</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>143447</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>20988</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>17627</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>164282</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>131875</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>146597</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>133714</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>20364</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>16124</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>330860</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>307554</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>286216</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>277162</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>41353</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>33751</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>131313; 212918</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>143691; 212681</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>111094; 170375</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>109256; 196055</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>16934; 24727</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>14297; 21857</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>131972; 195387</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>104993; 160398</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>119776; 178383</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>106169; 168503</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>17083; 23927</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>13231; 19414</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>284691; 389031</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>266889; 356832</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>248422; 331630</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>237131; 345074</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>36641; 47100</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>29442; 38927</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>132089</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>132702</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>121209</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>100882</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>12332</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13410</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>122265</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>93959</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>97433</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>99028</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>14941</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>11469</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>254354</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>226662</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>218642</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>199910</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>27273</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>24880</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>101809; 162123</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>107761; 162267</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>95995; 149157</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>77859; 131258</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>9559; 15672</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>10616; 16609</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>95607; 154027</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>71570; 118736</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>73608; 123771</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>69529; 132789</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>11967; 17994</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>8935; 14663</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>215153; 296044</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>192075; 262638</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>183148; 257108</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>160259; 244445</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>23400; 31784</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>21056; 29303</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>62856</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>55984</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>51338</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>76132</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>7615</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>9801</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>37045</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>42615</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>38296</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>32002</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4263</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>99900</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>98599</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>89634</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>108133</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>11877</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>14447</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>40650; 94354</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>35155; 90384</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>33432; 80538</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>46713; 114886</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4753; 10801</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>6776; 12956</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>17056; 71323</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>24328; 63415</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>22095; 61723</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>12822; 63881</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2185; 7459</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>2623; 7374</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>71469; 138296</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>71173; 135642</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>61519; 124275</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>72831; 153088</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>8620; 16712</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>10930; 18591</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>342.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>310.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>563.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>640.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>621.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>422.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>556.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>521.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>954333</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>852343</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>782848</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>735497</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>87280</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>84210</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>662205</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>623678</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>639520</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>546504</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>68090</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>65714</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1616538</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>1476021</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1422369</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>1282001</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>155369</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>149925</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>854341; 1056108</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>773215; 943895</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>698860; 876106</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>628847; 859459</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>77817; 95941</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>75153; 93522</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>585881; 738079</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>556902; 690286</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>561319; 711562</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>477217; 629417</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>60883; 76592</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>58466; 74176</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1489203; 1754319</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1369476; 1600075</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1302726; 1551434</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1168917; 1449504</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>143525; 167594</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>137618; 162205</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
